--- a/station3/ema.xlsx
+++ b/station3/ema.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>baseline</t>
   </si>
@@ -28,6 +28,15 @@
   </si>
   <si>
     <t>sek</t>
+  </si>
+  <si>
+    <t>(1-alpha)*bl</t>
+  </si>
+  <si>
+    <t>alpha*weight</t>
+  </si>
+  <si>
+    <t>F+G</t>
   </si>
 </sst>
 </file>
@@ -63,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -72,6 +82,232 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:marker val="1"/>
+        <c:axId val="46343680"/>
+        <c:axId val="46345216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="46343680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46345216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46345216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46343680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$6:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2849999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7994999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1596499999999992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4117549999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5882284999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7117599499999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7982319649999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8587623754999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9011336628499995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9307935639949996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="112829184"/>
+        <c:axId val="112830720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="112829184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112830720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="112830720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112829184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,10 +598,14 @@
   <dimension ref="B4:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
@@ -380,6 +620,15 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6">
@@ -389,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -400,11 +649,11 @@
       </c>
       <c r="G6">
         <f>D6 * E6</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H6">
         <f>F6+G6</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -413,25 +662,25 @@
       </c>
       <c r="C7">
         <f>H6</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
         <f xml:space="preserve"> (1-D7)*C7</f>
-        <v>0.45</v>
+        <v>1.0499999999999998</v>
       </c>
       <c r="G7">
         <f>D7 * E7</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H7">
         <f>F7+G7</f>
-        <v>0.95</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -440,25 +689,25 @@
       </c>
       <c r="C8">
         <f>H7</f>
-        <v>0.95</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8">
         <f xml:space="preserve"> (1-D8)*C8</f>
-        <v>0.85499999999999998</v>
+        <v>1.7849999999999997</v>
       </c>
       <c r="G8">
         <f>D8 * E8</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H8">
         <f>F8+G8</f>
-        <v>1.355</v>
+        <v>3.2849999999999997</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -467,25 +716,25 @@
       </c>
       <c r="C9">
         <f>H8</f>
-        <v>1.355</v>
+        <v>3.2849999999999997</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9">
         <f t="shared" ref="F9:F18" si="0" xml:space="preserve"> (1-D9)*C9</f>
-        <v>1.2195</v>
+        <v>2.2994999999999997</v>
       </c>
       <c r="G9">
         <f t="shared" ref="G9:G18" si="1">D9 * E9</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H9">
         <f t="shared" ref="H9:H18" si="2">F9+G9</f>
-        <v>1.7195</v>
+        <v>3.7994999999999997</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -494,25 +743,25 @@
       </c>
       <c r="C10">
         <f>H9</f>
-        <v>1.7195</v>
+        <v>3.7994999999999997</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>1.54755</v>
+        <v>2.6596499999999996</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>2.0475500000000002</v>
+        <v>4.1596499999999992</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -521,25 +770,25 @@
       </c>
       <c r="C11">
         <f>H10</f>
-        <v>2.0475500000000002</v>
+        <v>4.1596499999999992</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>1.8427950000000002</v>
+        <v>2.9117549999999994</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>2.3427950000000002</v>
+        <v>4.4117549999999994</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -548,25 +797,25 @@
       </c>
       <c r="C12">
         <f>H11</f>
-        <v>2.3427950000000002</v>
+        <v>4.4117549999999994</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>2.1085155000000002</v>
+        <v>3.0882284999999996</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>2.6085155000000002</v>
+        <v>4.5882284999999996</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -575,25 +824,25 @@
       </c>
       <c r="C13">
         <f>H12</f>
-        <v>2.6085155000000002</v>
+        <v>4.5882284999999996</v>
       </c>
       <c r="D13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>2.3476639500000003</v>
+        <v>3.2117599499999994</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>2.8476639500000003</v>
+        <v>4.7117599499999994</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -602,25 +851,25 @@
       </c>
       <c r="C14">
         <f>H13</f>
-        <v>2.8476639500000003</v>
+        <v>4.7117599499999994</v>
       </c>
       <c r="D14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E14">
         <v>5</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>2.5628975550000002</v>
+        <v>3.2982319649999994</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>3.0628975550000002</v>
+        <v>4.7982319649999994</v>
       </c>
     </row>
     <row r="15" spans="2:8">
@@ -629,25 +878,25 @@
       </c>
       <c r="C15">
         <f>H14</f>
-        <v>3.0628975550000002</v>
+        <v>4.7982319649999994</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E15">
         <v>5</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>2.7566077995000002</v>
+        <v>3.3587623754999996</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>3.2566077995000002</v>
+        <v>4.8587623754999996</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -656,25 +905,25 @@
       </c>
       <c r="C16">
         <f>H15</f>
-        <v>3.2566077995000002</v>
+        <v>4.8587623754999996</v>
       </c>
       <c r="D16">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>2.9309470195500005</v>
+        <v>3.4011336628499995</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>3.4309470195500005</v>
+        <v>4.9011336628499995</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -683,25 +932,25 @@
       </c>
       <c r="C17">
         <f>H16</f>
-        <v>3.4309470195500005</v>
+        <v>4.9011336628499995</v>
       </c>
       <c r="D17">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>3.0878523175950003</v>
+        <v>3.4307935639949996</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>3.5878523175950003</v>
+        <v>4.9307935639949996</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -710,30 +959,31 @@
       </c>
       <c r="C18">
         <f>H17</f>
-        <v>3.5878523175950003</v>
+        <v>4.9307935639949996</v>
       </c>
       <c r="D18">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E18">
         <v>5</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>3.2290670858355002</v>
+        <v>3.4515554947964997</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>3.7290670858355002</v>
+        <v>4.9515554947964997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/station3/ema.xlsx
+++ b/station3/ema.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="EMA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>baseline</t>
   </si>
@@ -38,6 +36,12 @@
   <si>
     <t>F+G</t>
   </si>
+  <si>
+    <t>baseline_est = (1.0 - baseline_alpha) * baseline_est + baseline_alpha * weight</t>
+  </si>
+  <si>
+    <t>EMA = Exponential Moving Average</t>
+  </si>
 </sst>
 </file>
 
@@ -52,12 +56,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,9 +82,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -153,7 +165,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$6:$C$18</c:f>
+              <c:f>EMA!$C$6:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -595,18 +607,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:H18"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:8">
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>3</v>
@@ -981,34 +1006,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>